--- a/TEAM-Kenya_data_out/scenarios/Scen_VanTypesKUJINAO.xlsx
+++ b/TEAM-Kenya_data_out/scenarios/Scen_VanTypesKUJINAO.xlsx
@@ -1119,52 +1119,52 @@
         <v>100000</v>
       </c>
       <c r="BW2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL2" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM2" t="n">
         <v>0.85</v>
@@ -1397,52 +1397,52 @@
         <v>100000</v>
       </c>
       <c r="BW3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL3" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM3" t="n">
         <v>0.85</v>
@@ -1675,52 +1675,52 @@
         <v>100000</v>
       </c>
       <c r="BW4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL4" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM4" t="n">
         <v>0.85</v>
@@ -1953,52 +1953,52 @@
         <v>100000</v>
       </c>
       <c r="BW5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL5" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM5" t="n">
         <v>0.85</v>
@@ -2159,28 +2159,28 @@
         <v>3471</v>
       </c>
       <c r="AY6" t="n">
-        <v>6607</v>
+        <v>6857</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6607</v>
+        <v>6857</v>
       </c>
       <c r="BA6" t="n">
-        <v>6607</v>
+        <v>6857</v>
       </c>
       <c r="BB6" t="n">
-        <v>6607</v>
+        <v>6857</v>
       </c>
       <c r="BC6" t="n">
-        <v>6607</v>
+        <v>6857</v>
       </c>
       <c r="BD6" t="n">
-        <v>6607</v>
+        <v>6857</v>
       </c>
       <c r="BE6" t="n">
-        <v>6607</v>
+        <v>6857</v>
       </c>
       <c r="BF6" t="n">
-        <v>6607</v>
+        <v>6857</v>
       </c>
       <c r="BG6" t="n">
         <v>7842</v>
@@ -2231,52 +2231,52 @@
         <v>100000</v>
       </c>
       <c r="BW6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL6" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM6" t="n">
         <v>0.85</v>
@@ -2437,28 +2437,28 @@
         <v>3342</v>
       </c>
       <c r="AY7" t="n">
-        <v>6214</v>
+        <v>6714</v>
       </c>
       <c r="AZ7" t="n">
-        <v>6214</v>
+        <v>6714</v>
       </c>
       <c r="BA7" t="n">
-        <v>6214</v>
+        <v>6714</v>
       </c>
       <c r="BB7" t="n">
-        <v>6214</v>
+        <v>6714</v>
       </c>
       <c r="BC7" t="n">
-        <v>6214</v>
+        <v>6714</v>
       </c>
       <c r="BD7" t="n">
-        <v>6214</v>
+        <v>6714</v>
       </c>
       <c r="BE7" t="n">
-        <v>6214</v>
+        <v>6714</v>
       </c>
       <c r="BF7" t="n">
-        <v>6214</v>
+        <v>6714</v>
       </c>
       <c r="BG7" t="n">
         <v>7684</v>
@@ -2509,52 +2509,52 @@
         <v>100000</v>
       </c>
       <c r="BW7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL7" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM7" t="n">
         <v>0.85</v>
@@ -2715,28 +2715,28 @@
         <v>3214</v>
       </c>
       <c r="AY8" t="n">
-        <v>5821</v>
+        <v>6571</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5821</v>
+        <v>6571</v>
       </c>
       <c r="BA8" t="n">
-        <v>5821</v>
+        <v>6571</v>
       </c>
       <c r="BB8" t="n">
-        <v>5821</v>
+        <v>6571</v>
       </c>
       <c r="BC8" t="n">
-        <v>5821</v>
+        <v>6571</v>
       </c>
       <c r="BD8" t="n">
-        <v>5821</v>
+        <v>6571</v>
       </c>
       <c r="BE8" t="n">
-        <v>5821</v>
+        <v>6571</v>
       </c>
       <c r="BF8" t="n">
-        <v>5821</v>
+        <v>6571</v>
       </c>
       <c r="BG8" t="n">
         <v>7526</v>
@@ -2787,52 +2787,52 @@
         <v>100000</v>
       </c>
       <c r="BW8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL8" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM8" t="n">
         <v>0.85</v>
@@ -2993,28 +2993,28 @@
         <v>3085</v>
       </c>
       <c r="AY9" t="n">
-        <v>5428</v>
+        <v>6428</v>
       </c>
       <c r="AZ9" t="n">
-        <v>5428</v>
+        <v>6428</v>
       </c>
       <c r="BA9" t="n">
-        <v>5428</v>
+        <v>6428</v>
       </c>
       <c r="BB9" t="n">
-        <v>5428</v>
+        <v>6428</v>
       </c>
       <c r="BC9" t="n">
-        <v>5428</v>
+        <v>6428</v>
       </c>
       <c r="BD9" t="n">
-        <v>5428</v>
+        <v>6428</v>
       </c>
       <c r="BE9" t="n">
-        <v>5428</v>
+        <v>6428</v>
       </c>
       <c r="BF9" t="n">
-        <v>5428</v>
+        <v>6428</v>
       </c>
       <c r="BG9" t="n">
         <v>7368</v>
@@ -3065,52 +3065,52 @@
         <v>100000</v>
       </c>
       <c r="BW9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL9" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM9" t="n">
         <v>0.85</v>
@@ -3271,28 +3271,28 @@
         <v>2957</v>
       </c>
       <c r="AY10" t="n">
-        <v>5035</v>
+        <v>6285</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5035</v>
+        <v>6285</v>
       </c>
       <c r="BA10" t="n">
-        <v>5035</v>
+        <v>6285</v>
       </c>
       <c r="BB10" t="n">
-        <v>5035</v>
+        <v>6285</v>
       </c>
       <c r="BC10" t="n">
-        <v>5035</v>
+        <v>6285</v>
       </c>
       <c r="BD10" t="n">
-        <v>5035</v>
+        <v>6285</v>
       </c>
       <c r="BE10" t="n">
-        <v>5035</v>
+        <v>6285</v>
       </c>
       <c r="BF10" t="n">
-        <v>5035</v>
+        <v>6285</v>
       </c>
       <c r="BG10" t="n">
         <v>7210</v>
@@ -3343,52 +3343,52 @@
         <v>100000</v>
       </c>
       <c r="BW10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL10" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM10" t="n">
         <v>0.85</v>
@@ -3549,28 +3549,28 @@
         <v>2828</v>
       </c>
       <c r="AY11" t="n">
-        <v>4642</v>
+        <v>6142</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4642</v>
+        <v>6142</v>
       </c>
       <c r="BA11" t="n">
-        <v>4642</v>
+        <v>6142</v>
       </c>
       <c r="BB11" t="n">
-        <v>4642</v>
+        <v>6142</v>
       </c>
       <c r="BC11" t="n">
-        <v>4642</v>
+        <v>6142</v>
       </c>
       <c r="BD11" t="n">
-        <v>4642</v>
+        <v>6142</v>
       </c>
       <c r="BE11" t="n">
-        <v>4642</v>
+        <v>6142</v>
       </c>
       <c r="BF11" t="n">
-        <v>4642</v>
+        <v>6142</v>
       </c>
       <c r="BG11" t="n">
         <v>7052</v>
@@ -3621,52 +3621,52 @@
         <v>100000</v>
       </c>
       <c r="BW11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL11" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM11" t="n">
         <v>0.85</v>
@@ -3827,28 +3827,28 @@
         <v>2700</v>
       </c>
       <c r="AY12" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="BA12" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="BB12" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="BC12" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="BD12" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="BE12" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="BF12" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="BG12" t="n">
         <v>6894</v>
@@ -3899,52 +3899,52 @@
         <v>100000</v>
       </c>
       <c r="BW12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL12" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM12" t="n">
         <v>0.85</v>
@@ -4105,28 +4105,28 @@
         <v>2571</v>
       </c>
       <c r="AY13" t="n">
-        <v>3857</v>
+        <v>5857</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3857</v>
+        <v>5857</v>
       </c>
       <c r="BA13" t="n">
-        <v>3857</v>
+        <v>5857</v>
       </c>
       <c r="BB13" t="n">
-        <v>3857</v>
+        <v>5857</v>
       </c>
       <c r="BC13" t="n">
-        <v>3857</v>
+        <v>5857</v>
       </c>
       <c r="BD13" t="n">
-        <v>3857</v>
+        <v>5857</v>
       </c>
       <c r="BE13" t="n">
-        <v>3857</v>
+        <v>5857</v>
       </c>
       <c r="BF13" t="n">
-        <v>3857</v>
+        <v>5857</v>
       </c>
       <c r="BG13" t="n">
         <v>6736</v>
@@ -4177,52 +4177,52 @@
         <v>100000</v>
       </c>
       <c r="BW13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL13" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM13" t="n">
         <v>0.85</v>
@@ -4383,28 +4383,28 @@
         <v>2442</v>
       </c>
       <c r="AY14" t="n">
-        <v>3464</v>
+        <v>5714</v>
       </c>
       <c r="AZ14" t="n">
-        <v>3464</v>
+        <v>5714</v>
       </c>
       <c r="BA14" t="n">
-        <v>3464</v>
+        <v>5714</v>
       </c>
       <c r="BB14" t="n">
-        <v>3464</v>
+        <v>5714</v>
       </c>
       <c r="BC14" t="n">
-        <v>3464</v>
+        <v>5714</v>
       </c>
       <c r="BD14" t="n">
-        <v>3464</v>
+        <v>5714</v>
       </c>
       <c r="BE14" t="n">
-        <v>3464</v>
+        <v>5714</v>
       </c>
       <c r="BF14" t="n">
-        <v>3464</v>
+        <v>5714</v>
       </c>
       <c r="BG14" t="n">
         <v>6578</v>
@@ -4455,52 +4455,52 @@
         <v>100000</v>
       </c>
       <c r="BW14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL14" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM14" t="n">
         <v>0.85</v>
@@ -4661,28 +4661,28 @@
         <v>2314</v>
       </c>
       <c r="AY15" t="n">
-        <v>3071</v>
+        <v>5571</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3071</v>
+        <v>5571</v>
       </c>
       <c r="BA15" t="n">
-        <v>3071</v>
+        <v>5571</v>
       </c>
       <c r="BB15" t="n">
-        <v>3071</v>
+        <v>5571</v>
       </c>
       <c r="BC15" t="n">
-        <v>3071</v>
+        <v>5571</v>
       </c>
       <c r="BD15" t="n">
-        <v>3071</v>
+        <v>5571</v>
       </c>
       <c r="BE15" t="n">
-        <v>3071</v>
+        <v>5571</v>
       </c>
       <c r="BF15" t="n">
-        <v>3071</v>
+        <v>5571</v>
       </c>
       <c r="BG15" t="n">
         <v>6421</v>
@@ -4733,52 +4733,52 @@
         <v>100000</v>
       </c>
       <c r="BW15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL15" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM15" t="n">
         <v>0.85</v>
@@ -4939,28 +4939,28 @@
         <v>2185</v>
       </c>
       <c r="AY16" t="n">
-        <v>2678</v>
+        <v>5428</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2678</v>
+        <v>5428</v>
       </c>
       <c r="BA16" t="n">
-        <v>2678</v>
+        <v>5428</v>
       </c>
       <c r="BB16" t="n">
-        <v>2678</v>
+        <v>5428</v>
       </c>
       <c r="BC16" t="n">
-        <v>2678</v>
+        <v>5428</v>
       </c>
       <c r="BD16" t="n">
-        <v>2678</v>
+        <v>5428</v>
       </c>
       <c r="BE16" t="n">
-        <v>2678</v>
+        <v>5428</v>
       </c>
       <c r="BF16" t="n">
-        <v>2678</v>
+        <v>5428</v>
       </c>
       <c r="BG16" t="n">
         <v>6263</v>
@@ -5011,52 +5011,52 @@
         <v>100000</v>
       </c>
       <c r="BW16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL16" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM16" t="n">
         <v>0.85</v>
@@ -5217,28 +5217,28 @@
         <v>2057</v>
       </c>
       <c r="AY17" t="n">
-        <v>2285</v>
+        <v>5285</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2285</v>
+        <v>5285</v>
       </c>
       <c r="BA17" t="n">
-        <v>2285</v>
+        <v>5285</v>
       </c>
       <c r="BB17" t="n">
-        <v>2285</v>
+        <v>5285</v>
       </c>
       <c r="BC17" t="n">
-        <v>2285</v>
+        <v>5285</v>
       </c>
       <c r="BD17" t="n">
-        <v>2285</v>
+        <v>5285</v>
       </c>
       <c r="BE17" t="n">
-        <v>2285</v>
+        <v>5285</v>
       </c>
       <c r="BF17" t="n">
-        <v>2285</v>
+        <v>5285</v>
       </c>
       <c r="BG17" t="n">
         <v>6105</v>
@@ -5289,52 +5289,52 @@
         <v>100000</v>
       </c>
       <c r="BW17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL17" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM17" t="n">
         <v>0.85</v>
@@ -5495,28 +5495,28 @@
         <v>1928</v>
       </c>
       <c r="AY18" t="n">
-        <v>1892</v>
+        <v>5142</v>
       </c>
       <c r="AZ18" t="n">
-        <v>1892</v>
+        <v>5142</v>
       </c>
       <c r="BA18" t="n">
-        <v>1892</v>
+        <v>5142</v>
       </c>
       <c r="BB18" t="n">
-        <v>1892</v>
+        <v>5142</v>
       </c>
       <c r="BC18" t="n">
-        <v>1892</v>
+        <v>5142</v>
       </c>
       <c r="BD18" t="n">
-        <v>1892</v>
+        <v>5142</v>
       </c>
       <c r="BE18" t="n">
-        <v>1892</v>
+        <v>5142</v>
       </c>
       <c r="BF18" t="n">
-        <v>1892</v>
+        <v>5142</v>
       </c>
       <c r="BG18" t="n">
         <v>5947</v>
@@ -5567,52 +5567,52 @@
         <v>100000</v>
       </c>
       <c r="BW18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL18" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM18" t="n">
         <v>0.85</v>
@@ -5773,28 +5773,28 @@
         <v>1800</v>
       </c>
       <c r="AY19" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="BA19" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="BB19" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="BC19" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="BD19" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="BE19" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="BF19" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="BG19" t="n">
         <v>5789</v>
@@ -5845,52 +5845,52 @@
         <v>100000</v>
       </c>
       <c r="BW19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL19" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM19" t="n">
         <v>0.85</v>
@@ -6051,28 +6051,28 @@
         <v>2440</v>
       </c>
       <c r="AY20" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="AZ20" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="BA20" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="BB20" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="BC20" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="BD20" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="BE20" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="BF20" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="BG20" t="n">
         <v>5631</v>
@@ -6123,52 +6123,52 @@
         <v>100000</v>
       </c>
       <c r="BW20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL20" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM20" t="n">
         <v>0.85</v>
@@ -6329,28 +6329,28 @@
         <v>3080</v>
       </c>
       <c r="AY21" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="AZ21" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="BA21" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="BB21" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="BC21" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="BD21" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="BE21" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="BF21" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="BG21" t="n">
         <v>5473</v>
@@ -6401,52 +6401,52 @@
         <v>100000</v>
       </c>
       <c r="BW21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL21" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM21" t="n">
         <v>0.85</v>
@@ -6607,28 +6607,28 @@
         <v>3720</v>
       </c>
       <c r="AY22" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="AZ22" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="BA22" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="BB22" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="BC22" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="BD22" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="BE22" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="BF22" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="BG22" t="n">
         <v>5315</v>
@@ -6679,52 +6679,52 @@
         <v>100000</v>
       </c>
       <c r="BW22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL22" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM22" t="n">
         <v>0.85</v>
@@ -6885,28 +6885,28 @@
         <v>4360</v>
       </c>
       <c r="AY23" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AZ23" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="BA23" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="BB23" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="BC23" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="BD23" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="BE23" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="BF23" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="BG23" t="n">
         <v>5157</v>
@@ -6957,52 +6957,52 @@
         <v>100000</v>
       </c>
       <c r="BW23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL23" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM23" t="n">
         <v>0.85</v>
@@ -7163,28 +7163,28 @@
         <v>5000</v>
       </c>
       <c r="AY24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="AZ24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="BA24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="BB24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="BC24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="BD24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="BE24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="BF24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="BG24" t="n">
         <v>5000</v>
@@ -7235,52 +7235,52 @@
         <v>100000</v>
       </c>
       <c r="BW24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL24" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM24" t="n">
         <v>0.85</v>
@@ -7441,28 +7441,28 @@
         <v>5000</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF25" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG25" t="n">
         <v>5000</v>
@@ -7513,52 +7513,52 @@
         <v>100000</v>
       </c>
       <c r="BW25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL25" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM25" t="n">
         <v>0.85</v>
@@ -7719,28 +7719,28 @@
         <v>5000</v>
       </c>
       <c r="AY26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF26" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG26" t="n">
         <v>5000</v>
@@ -7791,52 +7791,52 @@
         <v>100000</v>
       </c>
       <c r="BW26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL26" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM26" t="n">
         <v>0.85</v>
@@ -7997,28 +7997,28 @@
         <v>5000</v>
       </c>
       <c r="AY27" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA27" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB27" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC27" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD27" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE27" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF27" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG27" t="n">
         <v>5000</v>
@@ -8069,52 +8069,52 @@
         <v>100000</v>
       </c>
       <c r="BW27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL27" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM27" t="n">
         <v>0.85</v>
@@ -8275,28 +8275,28 @@
         <v>5000</v>
       </c>
       <c r="AY28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG28" t="n">
         <v>5000</v>
@@ -8347,52 +8347,52 @@
         <v>100000</v>
       </c>
       <c r="BW28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL28" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM28" t="n">
         <v>0.85</v>
@@ -8553,28 +8553,28 @@
         <v>5000</v>
       </c>
       <c r="AY29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG29" t="n">
         <v>5000</v>
@@ -8625,52 +8625,52 @@
         <v>100000</v>
       </c>
       <c r="BW29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL29" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM29" t="n">
         <v>0.85</v>
@@ -8831,28 +8831,28 @@
         <v>5000</v>
       </c>
       <c r="AY30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG30" t="n">
         <v>5000</v>
@@ -8903,52 +8903,52 @@
         <v>100000</v>
       </c>
       <c r="BW30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL30" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM30" t="n">
         <v>0.85</v>
@@ -9109,28 +9109,28 @@
         <v>5000</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG31" t="n">
         <v>5000</v>
@@ -9181,52 +9181,52 @@
         <v>100000</v>
       </c>
       <c r="BW31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL31" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM31" t="n">
         <v>0.85</v>
@@ -9387,28 +9387,28 @@
         <v>5000</v>
       </c>
       <c r="AY32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG32" t="n">
         <v>5000</v>
@@ -9459,52 +9459,52 @@
         <v>100000</v>
       </c>
       <c r="BW32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL32" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM32" t="n">
         <v>0.85</v>
@@ -9665,28 +9665,28 @@
         <v>5000</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG33" t="n">
         <v>5000</v>
@@ -9737,52 +9737,52 @@
         <v>100000</v>
       </c>
       <c r="BW33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL33" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM33" t="n">
         <v>0.85</v>
@@ -9943,28 +9943,28 @@
         <v>5000</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG34" t="n">
         <v>5000</v>
@@ -10015,52 +10015,52 @@
         <v>100000</v>
       </c>
       <c r="BW34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL34" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM34" t="n">
         <v>0.85</v>
@@ -10221,28 +10221,28 @@
         <v>5000</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG35" t="n">
         <v>5000</v>
@@ -10293,52 +10293,52 @@
         <v>100000</v>
       </c>
       <c r="BW35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL35" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM35" t="n">
         <v>0.85</v>
@@ -10499,28 +10499,28 @@
         <v>5000</v>
       </c>
       <c r="AY36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG36" t="n">
         <v>5000</v>
@@ -10571,52 +10571,52 @@
         <v>100000</v>
       </c>
       <c r="BW36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL36" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM36" t="n">
         <v>0.85</v>
@@ -10777,28 +10777,28 @@
         <v>5000</v>
       </c>
       <c r="AY37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG37" t="n">
         <v>5000</v>
@@ -10849,52 +10849,52 @@
         <v>100000</v>
       </c>
       <c r="BW37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL37" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM37" t="n">
         <v>0.85</v>
@@ -11055,28 +11055,28 @@
         <v>5000</v>
       </c>
       <c r="AY38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG38" t="n">
         <v>5000</v>
@@ -11127,52 +11127,52 @@
         <v>100000</v>
       </c>
       <c r="BW38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL38" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM38" t="n">
         <v>0.85</v>
@@ -11333,28 +11333,28 @@
         <v>5000</v>
       </c>
       <c r="AY39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG39" t="n">
         <v>5000</v>
@@ -11405,52 +11405,52 @@
         <v>100000</v>
       </c>
       <c r="BW39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL39" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM39" t="n">
         <v>0.85</v>
@@ -11611,28 +11611,28 @@
         <v>5000</v>
       </c>
       <c r="AY40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG40" t="n">
         <v>5000</v>
@@ -11683,52 +11683,52 @@
         <v>100000</v>
       </c>
       <c r="BW40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL40" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM40" t="n">
         <v>0.85</v>
@@ -11889,28 +11889,28 @@
         <v>5000</v>
       </c>
       <c r="AY41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG41" t="n">
         <v>5000</v>
@@ -11961,52 +11961,52 @@
         <v>100000</v>
       </c>
       <c r="BW41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL41" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM41" t="n">
         <v>0.85</v>
@@ -12167,28 +12167,28 @@
         <v>5000</v>
       </c>
       <c r="AY42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG42" t="n">
         <v>5000</v>
@@ -12239,52 +12239,52 @@
         <v>100000</v>
       </c>
       <c r="BW42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL42" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM42" t="n">
         <v>0.85</v>
@@ -12445,28 +12445,28 @@
         <v>5000</v>
       </c>
       <c r="AY43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG43" t="n">
         <v>5000</v>
@@ -12517,52 +12517,52 @@
         <v>100000</v>
       </c>
       <c r="BW43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL43" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM43" t="n">
         <v>0.85</v>
@@ -12723,28 +12723,28 @@
         <v>5000</v>
       </c>
       <c r="AY44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG44" t="n">
         <v>5000</v>
@@ -12795,52 +12795,52 @@
         <v>100000</v>
       </c>
       <c r="BW44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL44" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM44" t="n">
         <v>0.85</v>
@@ -13001,28 +13001,28 @@
         <v>5000</v>
       </c>
       <c r="AY45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG45" t="n">
         <v>5000</v>
@@ -13073,52 +13073,52 @@
         <v>100000</v>
       </c>
       <c r="BW45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL45" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM45" t="n">
         <v>0.85</v>
@@ -13279,28 +13279,28 @@
         <v>5000</v>
       </c>
       <c r="AY46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG46" t="n">
         <v>5000</v>
@@ -13351,52 +13351,52 @@
         <v>100000</v>
       </c>
       <c r="BW46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL46" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM46" t="n">
         <v>0.85</v>
@@ -13557,28 +13557,28 @@
         <v>5000</v>
       </c>
       <c r="AY47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG47" t="n">
         <v>5000</v>
@@ -13629,52 +13629,52 @@
         <v>100000</v>
       </c>
       <c r="BW47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL47" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM47" t="n">
         <v>0.85</v>
@@ -13835,28 +13835,28 @@
         <v>5000</v>
       </c>
       <c r="AY48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG48" t="n">
         <v>5000</v>
@@ -13907,52 +13907,52 @@
         <v>100000</v>
       </c>
       <c r="BW48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL48" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM48" t="n">
         <v>0.85</v>
@@ -14113,28 +14113,28 @@
         <v>5000</v>
       </c>
       <c r="AY49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG49" t="n">
         <v>5000</v>
@@ -14185,52 +14185,52 @@
         <v>100000</v>
       </c>
       <c r="BW49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL49" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM49" t="n">
         <v>0.85</v>
@@ -14391,28 +14391,28 @@
         <v>5000</v>
       </c>
       <c r="AY50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG50" t="n">
         <v>5000</v>
@@ -14463,52 +14463,52 @@
         <v>100000</v>
       </c>
       <c r="BW50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL50" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM50" t="n">
         <v>0.85</v>
@@ -14669,28 +14669,28 @@
         <v>5000</v>
       </c>
       <c r="AY51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG51" t="n">
         <v>5000</v>
@@ -14741,52 +14741,52 @@
         <v>100000</v>
       </c>
       <c r="BW51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL51" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM51" t="n">
         <v>0.85</v>
@@ -14947,28 +14947,28 @@
         <v>5000</v>
       </c>
       <c r="AY52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG52" t="n">
         <v>5000</v>
@@ -15019,52 +15019,52 @@
         <v>100000</v>
       </c>
       <c r="BW52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL52" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM52" t="n">
         <v>0.85</v>
@@ -15225,28 +15225,28 @@
         <v>5000</v>
       </c>
       <c r="AY53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG53" t="n">
         <v>5000</v>
@@ -15297,52 +15297,52 @@
         <v>100000</v>
       </c>
       <c r="BW53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL53" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM53" t="n">
         <v>0.85</v>
@@ -15503,28 +15503,28 @@
         <v>5000</v>
       </c>
       <c r="AY54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG54" t="n">
         <v>5000</v>
@@ -15575,52 +15575,52 @@
         <v>100000</v>
       </c>
       <c r="BW54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL54" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM54" t="n">
         <v>0.85</v>
@@ -15781,28 +15781,28 @@
         <v>5000</v>
       </c>
       <c r="AY55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG55" t="n">
         <v>5000</v>
@@ -15853,52 +15853,52 @@
         <v>100000</v>
       </c>
       <c r="BW55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL55" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM55" t="n">
         <v>0.85</v>
@@ -16059,28 +16059,28 @@
         <v>5000</v>
       </c>
       <c r="AY56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG56" t="n">
         <v>5000</v>
@@ -16131,52 +16131,52 @@
         <v>100000</v>
       </c>
       <c r="BW56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL56" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM56" t="n">
         <v>0.85</v>
@@ -16337,28 +16337,28 @@
         <v>5000</v>
       </c>
       <c r="AY57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG57" t="n">
         <v>5000</v>
@@ -16409,52 +16409,52 @@
         <v>100000</v>
       </c>
       <c r="BW57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL57" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM57" t="n">
         <v>0.85</v>
@@ -16615,28 +16615,28 @@
         <v>5000</v>
       </c>
       <c r="AY58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG58" t="n">
         <v>5000</v>
@@ -16687,52 +16687,52 @@
         <v>100000</v>
       </c>
       <c r="BW58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL58" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM58" t="n">
         <v>0.85</v>
@@ -16893,28 +16893,28 @@
         <v>5000</v>
       </c>
       <c r="AY59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG59" t="n">
         <v>5000</v>
@@ -16965,52 +16965,52 @@
         <v>100000</v>
       </c>
       <c r="BW59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL59" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM59" t="n">
         <v>0.85</v>
@@ -17171,28 +17171,28 @@
         <v>5000</v>
       </c>
       <c r="AY60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG60" t="n">
         <v>5000</v>
@@ -17243,52 +17243,52 @@
         <v>100000</v>
       </c>
       <c r="BW60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL60" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM60" t="n">
         <v>0.85</v>
@@ -17449,28 +17449,28 @@
         <v>5000</v>
       </c>
       <c r="AY61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG61" t="n">
         <v>5000</v>
@@ -17521,52 +17521,52 @@
         <v>100000</v>
       </c>
       <c r="BW61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL61" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM61" t="n">
         <v>0.85</v>
@@ -17727,28 +17727,28 @@
         <v>5000</v>
       </c>
       <c r="AY62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG62" t="n">
         <v>5000</v>
@@ -17799,52 +17799,52 @@
         <v>100000</v>
       </c>
       <c r="BW62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL62" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM62" t="n">
         <v>0.85</v>
@@ -18005,28 +18005,28 @@
         <v>5000</v>
       </c>
       <c r="AY63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG63" t="n">
         <v>5000</v>
@@ -18077,52 +18077,52 @@
         <v>100000</v>
       </c>
       <c r="BW63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL63" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM63" t="n">
         <v>0.85</v>
@@ -18283,28 +18283,28 @@
         <v>5000</v>
       </c>
       <c r="AY64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG64" t="n">
         <v>5000</v>
@@ -18355,52 +18355,52 @@
         <v>100000</v>
       </c>
       <c r="BW64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL64" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM64" t="n">
         <v>0.85</v>
@@ -18561,28 +18561,28 @@
         <v>5000</v>
       </c>
       <c r="AY65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG65" t="n">
         <v>5000</v>
@@ -18633,52 +18633,52 @@
         <v>100000</v>
       </c>
       <c r="BW65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL65" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM65" t="n">
         <v>0.85</v>
@@ -18839,28 +18839,28 @@
         <v>5000</v>
       </c>
       <c r="AY66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG66" t="n">
         <v>5000</v>
@@ -18911,52 +18911,52 @@
         <v>100000</v>
       </c>
       <c r="BW66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL66" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM66" t="n">
         <v>0.85</v>
@@ -19117,28 +19117,28 @@
         <v>5000</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG67" t="n">
         <v>5000</v>
@@ -19189,52 +19189,52 @@
         <v>100000</v>
       </c>
       <c r="BW67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL67" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM67" t="n">
         <v>0.85</v>
@@ -19395,28 +19395,28 @@
         <v>5000</v>
       </c>
       <c r="AY68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG68" t="n">
         <v>5000</v>
@@ -19467,52 +19467,52 @@
         <v>100000</v>
       </c>
       <c r="BW68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL68" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM68" t="n">
         <v>0.85</v>
@@ -19673,28 +19673,28 @@
         <v>5000</v>
       </c>
       <c r="AY69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG69" t="n">
         <v>5000</v>
@@ -19745,52 +19745,52 @@
         <v>100000</v>
       </c>
       <c r="BW69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL69" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM69" t="n">
         <v>0.85</v>
@@ -19951,28 +19951,28 @@
         <v>5000</v>
       </c>
       <c r="AY70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG70" t="n">
         <v>5000</v>
@@ -20023,52 +20023,52 @@
         <v>100000</v>
       </c>
       <c r="BW70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL70" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM70" t="n">
         <v>0.85</v>
@@ -20229,28 +20229,28 @@
         <v>5000</v>
       </c>
       <c r="AY71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG71" t="n">
         <v>5000</v>
@@ -20301,52 +20301,52 @@
         <v>100000</v>
       </c>
       <c r="BW71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL71" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM71" t="n">
         <v>0.85</v>
@@ -20507,28 +20507,28 @@
         <v>5000</v>
       </c>
       <c r="AY72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG72" t="n">
         <v>5000</v>
@@ -20579,52 +20579,52 @@
         <v>100000</v>
       </c>
       <c r="BW72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL72" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM72" t="n">
         <v>0.85</v>
@@ -20785,28 +20785,28 @@
         <v>5000</v>
       </c>
       <c r="AY73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG73" t="n">
         <v>5000</v>
@@ -20857,52 +20857,52 @@
         <v>100000</v>
       </c>
       <c r="BW73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL73" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM73" t="n">
         <v>0.85</v>
@@ -21063,28 +21063,28 @@
         <v>5000</v>
       </c>
       <c r="AY74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG74" t="n">
         <v>5000</v>
@@ -21135,52 +21135,52 @@
         <v>100000</v>
       </c>
       <c r="BW74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL74" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM74" t="n">
         <v>0.85</v>
@@ -21341,28 +21341,28 @@
         <v>5000</v>
       </c>
       <c r="AY75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG75" t="n">
         <v>5000</v>
@@ -21413,52 +21413,52 @@
         <v>100000</v>
       </c>
       <c r="BW75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL75" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM75" t="n">
         <v>0.85</v>
@@ -21619,28 +21619,28 @@
         <v>5000</v>
       </c>
       <c r="AY76" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA76" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB76" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC76" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD76" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE76" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF76" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG76" t="n">
         <v>5000</v>
@@ -21691,52 +21691,52 @@
         <v>100000</v>
       </c>
       <c r="BW76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL76" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM76" t="n">
         <v>0.85</v>
@@ -21897,28 +21897,28 @@
         <v>5000</v>
       </c>
       <c r="AY77" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ77" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA77" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB77" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC77" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD77" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE77" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF77" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG77" t="n">
         <v>5000</v>
@@ -21969,52 +21969,52 @@
         <v>100000</v>
       </c>
       <c r="BW77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL77" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM77" t="n">
         <v>0.85</v>
@@ -22175,28 +22175,28 @@
         <v>5000</v>
       </c>
       <c r="AY78" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ78" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA78" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB78" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC78" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD78" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE78" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF78" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG78" t="n">
         <v>5000</v>
@@ -22247,52 +22247,52 @@
         <v>100000</v>
       </c>
       <c r="BW78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL78" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM78" t="n">
         <v>0.85</v>
@@ -22453,28 +22453,28 @@
         <v>5000</v>
       </c>
       <c r="AY79" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA79" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB79" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC79" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD79" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE79" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF79" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG79" t="n">
         <v>5000</v>
@@ -22525,52 +22525,52 @@
         <v>100000</v>
       </c>
       <c r="BW79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL79" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM79" t="n">
         <v>0.85</v>
@@ -22731,28 +22731,28 @@
         <v>5000</v>
       </c>
       <c r="AY80" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ80" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA80" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB80" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC80" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD80" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE80" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF80" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG80" t="n">
         <v>5000</v>
@@ -22803,52 +22803,52 @@
         <v>100000</v>
       </c>
       <c r="BW80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL80" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM80" t="n">
         <v>0.85</v>
@@ -23009,28 +23009,28 @@
         <v>5000</v>
       </c>
       <c r="AY81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG81" t="n">
         <v>5000</v>
@@ -23081,52 +23081,52 @@
         <v>100000</v>
       </c>
       <c r="BW81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL81" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM81" t="n">
         <v>0.85</v>
@@ -23287,28 +23287,28 @@
         <v>5000</v>
       </c>
       <c r="AY82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF82" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG82" t="n">
         <v>5000</v>
@@ -23359,52 +23359,52 @@
         <v>100000</v>
       </c>
       <c r="BW82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL82" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM82" t="n">
         <v>0.85</v>
@@ -23565,28 +23565,28 @@
         <v>5000</v>
       </c>
       <c r="AY83" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ83" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA83" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB83" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC83" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD83" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE83" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF83" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG83" t="n">
         <v>5000</v>
@@ -23637,52 +23637,52 @@
         <v>100000</v>
       </c>
       <c r="BW83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL83" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM83" t="n">
         <v>0.85</v>
@@ -23843,28 +23843,28 @@
         <v>5000</v>
       </c>
       <c r="AY84" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ84" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA84" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB84" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC84" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD84" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE84" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF84" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG84" t="n">
         <v>5000</v>
@@ -23915,52 +23915,52 @@
         <v>100000</v>
       </c>
       <c r="BW84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL84" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM84" t="n">
         <v>0.85</v>
@@ -24121,28 +24121,28 @@
         <v>5000</v>
       </c>
       <c r="AY85" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ85" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA85" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB85" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC85" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD85" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE85" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF85" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG85" t="n">
         <v>5000</v>
@@ -24193,52 +24193,52 @@
         <v>100000</v>
       </c>
       <c r="BW85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL85" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM85" t="n">
         <v>0.85</v>
@@ -24399,28 +24399,28 @@
         <v>5000</v>
       </c>
       <c r="AY86" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ86" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA86" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB86" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC86" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD86" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE86" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF86" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG86" t="n">
         <v>5000</v>
@@ -24471,52 +24471,52 @@
         <v>100000</v>
       </c>
       <c r="BW86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL86" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM86" t="n">
         <v>0.85</v>
@@ -24677,28 +24677,28 @@
         <v>5000</v>
       </c>
       <c r="AY87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG87" t="n">
         <v>5000</v>
@@ -24749,52 +24749,52 @@
         <v>100000</v>
       </c>
       <c r="BW87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL87" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM87" t="n">
         <v>0.85</v>
@@ -24955,28 +24955,28 @@
         <v>5000</v>
       </c>
       <c r="AY88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG88" t="n">
         <v>5000</v>
@@ -25027,52 +25027,52 @@
         <v>100000</v>
       </c>
       <c r="BW88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL88" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM88" t="n">
         <v>0.85</v>
@@ -25233,28 +25233,28 @@
         <v>5000</v>
       </c>
       <c r="AY89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG89" t="n">
         <v>5000</v>
@@ -25305,52 +25305,52 @@
         <v>100000</v>
       </c>
       <c r="BW89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL89" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM89" t="n">
         <v>0.85</v>
@@ -25511,28 +25511,28 @@
         <v>5000</v>
       </c>
       <c r="AY90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AZ90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BA90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BB90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BC90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BD90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BE90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BF90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="BG90" t="n">
         <v>5000</v>
@@ -25583,52 +25583,52 @@
         <v>100000</v>
       </c>
       <c r="BW90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BX90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BY90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="BZ90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CA90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CB90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CC90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CD90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CE90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CF90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CG90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CH90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CI90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CJ90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CK90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CL90" t="n">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="CM90" t="n">
         <v>0.85</v>
